--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406718.8852825842</v>
+        <v>336396.3048630666</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11391437.76547035</v>
+        <v>11512539.900382</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10676351.96705205</v>
+        <v>10361893.43952978</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8096213.398164082</v>
+        <v>8239106.15527913</v>
       </c>
     </row>
     <row r="11">
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>182.5570120086806</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>140.8442974039908</v>
       </c>
     </row>
     <row r="10">
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>55.9814103803652</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.9091634695529</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>103.3387326418228</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>194.6624603617375</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.781160222249659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>111.1433859782999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.5606482621392</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923704908</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.30660220273166</v>
+        <v>155.4010654756824</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>149.9272522724934</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.547702772954</v>
@@ -1864,7 +1864,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>78.81332638281998</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923704908</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0665623188218</v>
       </c>
       <c r="U18" t="n">
         <v>225.8092030868072</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.85630789274337</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>41.54195423095356</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>63.3186320549093</v>
       </c>
       <c r="G20" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>353.9132394443499</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923704953</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.42829548114735</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.06976758835513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>73.32299397038692</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.053954014812201</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>26.75826029632495</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>80.23930645615779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>97.76495675565778</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
@@ -2608,19 +2608,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.6234411931696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705085</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8242493721</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>90.69811547110045</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>265.6104673789066</v>
       </c>
       <c r="D29" t="n">
-        <v>151.3828257363621</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.3387326418232</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
         <v>194.6624603617375</v>
@@ -3006,13 +3006,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>50.81459004052675</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>89.12985772078963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>49.18078989215676</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3161,7 +3161,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
-        <v>192.0665623188218</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U33" t="n">
         <v>225.8092030868072</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>95.05195193437473</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.781160222249139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74996582257636</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>279.7561196474277</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.781160222249448</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>195.5270432472205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>213.6895597919025</v>
       </c>
       <c r="W38" t="n">
-        <v>220.0826678349745</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>144.0914449499677</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>30.39104031894566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>72.43579197616187</v>
       </c>
       <c r="I41" t="n">
         <v>65.70991267247049</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>160.1789165132255</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>91.977225613084</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>226.2744752668267</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.10524828400264</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>208.2474868886323</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>24.9381433708264</v>
       </c>
       <c r="T46" t="n">
-        <v>105.5027752869399</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>722.919292284329</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>722.919292284329</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>722.919292284329</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>533.4995072678439</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>533.4995072678439</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>533.4995072678439</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>344.0797222513588</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>201.8127551766207</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>373.5399563830978</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>559.1902876777548</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>721.928491114305</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.500788950814</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.538272010403</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.272573403652</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E11" t="n">
-        <v>934.4843208054078</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F11" t="n">
-        <v>523.4984160158003</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G11" t="n">
-        <v>107.7936657400892</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U11" t="n">
-        <v>2437.640120926626</v>
+        <v>2316.519753785662</v>
       </c>
       <c r="V11" t="n">
-        <v>2437.640120926626</v>
+        <v>1985.456866442092</v>
       </c>
       <c r="W11" t="n">
-        <v>2437.640120926626</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.640120926626</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2047.500788950814</v>
+        <v>1632.688211171978</v>
       </c>
     </row>
     <row r="12">
@@ -5102,49 +5102,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E12" t="n">
         <v>448.6792471488047</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M12" t="n">
-        <v>956.284402521753</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.515588472123</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O12" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
         <v>2426.617474780096</v>
@@ -5153,7 +5153,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.24678656800312</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="C13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U13" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426272</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056666</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X13" t="n">
-        <v>53.04593830764924</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.24678656800312</v>
+        <v>155.6293447920665</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1246.899958573734</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C14" t="n">
-        <v>877.9374416333218</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D14" t="n">
-        <v>877.9374416333218</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9374416333218</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437142</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400154</v>
+        <v>2325.374074483898</v>
       </c>
       <c r="V14" t="n">
-        <v>2231.276441056583</v>
+        <v>1994.311187140328</v>
       </c>
       <c r="W14" t="n">
-        <v>1878.507785786469</v>
+        <v>1641.542531870213</v>
       </c>
       <c r="X14" t="n">
-        <v>1505.042027525389</v>
+        <v>1268.076773609134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1246.899958573734</v>
+        <v>877.9374416333219</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488038</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057791</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>560.1394111735138</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L15" t="n">
-        <v>854.8429682049854</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M15" t="n">
-        <v>1218.104987164205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.39011576115</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O15" t="n">
-        <v>1937.460550937312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.685363568935</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312192</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U16" t="n">
-        <v>1114.255484944676</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V16" t="n">
-        <v>1114.255484944676</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W16" t="n">
-        <v>1114.255484944676</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X16" t="n">
-        <v>1114.255484944676</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="Y16" t="n">
-        <v>1114.255484944676</v>
+        <v>990.0598878880306</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>771.0106808461439</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C17" t="n">
-        <v>771.0106808461439</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="D17" t="n">
-        <v>771.0106808461439</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E17" t="n">
-        <v>771.0106808461439</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F17" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G17" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U17" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V17" t="n">
-        <v>2273.984266417272</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W17" t="n">
-        <v>1921.215611147157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X17" t="n">
-        <v>1547.749852886077</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1157.610520910266</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488038</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057791</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>158.5894986512065</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>343.3111199322564</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L18" t="n">
-        <v>638.0146769637279</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M18" t="n">
-        <v>1001.276695922948</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N18" t="n">
-        <v>1635.455679701986</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>1967.526114878147</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P18" t="n">
-        <v>2214.708848710444</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>934.7929217761706</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C19" t="n">
-        <v>765.8567388482637</v>
+        <v>411.3114606023164</v>
       </c>
       <c r="D19" t="n">
-        <v>615.740099435928</v>
+        <v>261.1948211899806</v>
       </c>
       <c r="E19" t="n">
-        <v>467.8270058535348</v>
+        <v>261.1948211899806</v>
       </c>
       <c r="F19" t="n">
-        <v>367.9721493962183</v>
+        <v>261.1948211899806</v>
       </c>
       <c r="G19" t="n">
-        <v>199.9856847044969</v>
+        <v>93.20835649825923</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312192</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1337.23396574994</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>1337.23396574994</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V19" t="n">
-        <v>1337.23396574994</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W19" t="n">
-        <v>1337.23396574994</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X19" t="n">
-        <v>1337.23396574994</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y19" t="n">
-        <v>1116.44138660641</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>891.5908846145765</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="C20" t="n">
-        <v>891.5908846145765</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="D20" t="n">
-        <v>533.3251860078259</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="E20" t="n">
-        <v>533.3251860078259</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="F20" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G20" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H20" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O20" t="n">
         <v>2055.22848474084</v>
@@ -5773,31 +5773,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2228.894479532449</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U20" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V20" t="n">
-        <v>1975.313418796629</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.544763526515</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X20" t="n">
-        <v>1249.079005265435</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y20" t="n">
-        <v>891.5908846145765</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.304141096638</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C21" t="n">
-        <v>756.851111815511</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542597</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488042</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756892</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182514</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057837</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
-        <v>119.987098413552</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>304.7087196946019</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L21" t="n">
-        <v>599.4122767260734</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M21" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N21" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P21" t="n">
-        <v>2447.023413292608</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
         <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.1367340659135</v>
+        <v>648.7476305124055</v>
       </c>
       <c r="C22" t="n">
-        <v>198.1367340659135</v>
+        <v>648.7476305124055</v>
       </c>
       <c r="D22" t="n">
-        <v>198.1367340659135</v>
+        <v>498.6309911000698</v>
       </c>
       <c r="E22" t="n">
-        <v>198.1367340659135</v>
+        <v>350.7178975176766</v>
       </c>
       <c r="F22" t="n">
-        <v>51.24678656800309</v>
+        <v>350.7178975176766</v>
       </c>
       <c r="G22" t="n">
-        <v>51.24678656800309</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800309</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312192</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S22" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T22" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U22" t="n">
-        <v>825.1371474485136</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V22" t="n">
-        <v>570.4526592426267</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W22" t="n">
-        <v>281.0354892056661</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="X22" t="n">
-        <v>198.1367340659135</v>
+        <v>1051.188674486175</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.1367340659135</v>
+        <v>830.3960953426453</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.326884986528</v>
+        <v>1214.090290083873</v>
       </c>
       <c r="C23" t="n">
-        <v>869.3643680461159</v>
+        <v>1214.090290083873</v>
       </c>
       <c r="D23" t="n">
-        <v>511.0986694393654</v>
+        <v>855.8245914771223</v>
       </c>
       <c r="E23" t="n">
-        <v>125.3104168411212</v>
+        <v>470.0363388788781</v>
       </c>
       <c r="F23" t="n">
-        <v>51.24678656800309</v>
+        <v>470.0363388788781</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800309</v>
+        <v>54.33158860316695</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664334</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V23" t="n">
-        <v>1977.695380320763</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W23" t="n">
-        <v>1624.926725050649</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X23" t="n">
-        <v>1624.926725050649</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.926725050649</v>
+        <v>1214.090290083873</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6101,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6110,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.9856847044969</v>
+        <v>710.0010210217985</v>
       </c>
       <c r="C25" t="n">
-        <v>199.9856847044969</v>
+        <v>541.0648380938916</v>
       </c>
       <c r="D25" t="n">
-        <v>199.9856847044969</v>
+        <v>541.0648380938916</v>
       </c>
       <c r="E25" t="n">
-        <v>199.9856847044969</v>
+        <v>393.1517445114985</v>
       </c>
       <c r="F25" t="n">
-        <v>199.9856847044969</v>
+        <v>246.2617970135881</v>
       </c>
       <c r="G25" t="n">
-        <v>199.9856847044969</v>
+        <v>78.2753323218667</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K25" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U25" t="n">
-        <v>825.1371474485138</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V25" t="n">
-        <v>570.452659242627</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W25" t="n">
-        <v>281.0354892056664</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X25" t="n">
-        <v>199.9856847044969</v>
+        <v>930.7936001653286</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.9856847044969</v>
+        <v>710.0010210217985</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>825.2172354504648</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="C26" t="n">
-        <v>825.2172354504648</v>
+        <v>565.7040184150858</v>
       </c>
       <c r="D26" t="n">
-        <v>466.9515368437143</v>
+        <v>565.7040184150858</v>
       </c>
       <c r="E26" t="n">
-        <v>466.9515368437143</v>
+        <v>565.7040184150858</v>
       </c>
       <c r="F26" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O26" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T26" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V26" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W26" t="n">
-        <v>1975.31341879663</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X26" t="n">
-        <v>1601.956407490398</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y26" t="n">
-        <v>1211.817075514587</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488056</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756906</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182527</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057973</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>590.2049751143504</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L27" t="n">
-        <v>884.9085321458222</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M27" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N27" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P27" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6338,16 +6338,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1905.213796220499</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C28" t="n">
-        <v>1736.277613292593</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D28" t="n">
-        <v>1586.160973880257</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E28" t="n">
-        <v>1438.247880297864</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F28" t="n">
-        <v>1291.357932799954</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G28" t="n">
-        <v>1125.878893030156</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H28" t="n">
-        <v>977.1399948936619</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I28" t="n">
-        <v>977.1399948936619</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J28" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K28" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M28" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N28" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O28" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P28" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>2562.339328400156</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="U28" t="n">
-        <v>2562.339328400156</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V28" t="n">
-        <v>2307.654840194269</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W28" t="n">
-        <v>2307.654840194269</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X28" t="n">
-        <v>2307.654840194269</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y28" t="n">
-        <v>2086.862261050739</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1785.600156360222</v>
+        <v>1532.019095624401</v>
       </c>
       <c r="C29" t="n">
-        <v>1416.637639419811</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D29" t="n">
         <v>1263.725694231566</v>
@@ -6454,61 +6454,61 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X29" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.199996424344</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D30" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F30" t="n">
         <v>302.1446891756898</v>
@@ -6536,37 +6536,37 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L30" t="n">
-        <v>1092.885047004313</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M30" t="n">
-        <v>1456.147065963533</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>2175.50262973664</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R30" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S30" t="n">
         <v>2426.617474780096</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.24678656800312</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C31" t="n">
-        <v>51.24678656800312</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D31" t="n">
-        <v>51.24678656800312</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E31" t="n">
-        <v>51.24678656800312</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800312</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N31" t="n">
         <v>1123.088724245823</v>
@@ -6645,28 +6645,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S31" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T31" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U31" t="n">
-        <v>927.7205539329318</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V31" t="n">
-        <v>673.036065727045</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W31" t="n">
-        <v>383.6188956900843</v>
+        <v>1062.927616216871</v>
       </c>
       <c r="X31" t="n">
-        <v>155.629344792067</v>
+        <v>834.938065318854</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.629344792067</v>
+        <v>834.938065318854</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.276945881932</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C32" t="n">
-        <v>51.24678656800311</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D32" t="n">
-        <v>51.24678656800311</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E32" t="n">
-        <v>51.24678656800311</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2512.661762852522</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2512.661762852522</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.31341879663</v>
+        <v>2259.080702116702</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.250531453059</v>
+        <v>1928.017814773131</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182945</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="X32" t="n">
-        <v>918.0161179218655</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="Y32" t="n">
-        <v>527.8767859460538</v>
+        <v>1575.249159503017</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>590.20497511435</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L33" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M33" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6812,7 +6812,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
@@ -6821,7 +6821,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>977.1399948936614</v>
+        <v>687.0249717364609</v>
       </c>
       <c r="C34" t="n">
-        <v>977.1399948936614</v>
+        <v>518.088788808554</v>
       </c>
       <c r="D34" t="n">
-        <v>977.1399948936614</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E34" t="n">
-        <v>977.1399948936614</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F34" t="n">
-        <v>977.1399948936614</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G34" t="n">
-        <v>977.1399948936614</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H34" t="n">
-        <v>977.1399948936614</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936614</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2459.755921915737</v>
+        <v>1540.434047413513</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.127174075599</v>
+        <v>1540.434047413513</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.148693270334</v>
+        <v>1317.455566608248</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.030355774172</v>
+        <v>1317.455566608248</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.345867568285</v>
+        <v>1317.455566608248</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.928697531324</v>
+        <v>1317.455566608248</v>
       </c>
       <c r="X34" t="n">
-        <v>978.939146633307</v>
+        <v>1089.466015710231</v>
       </c>
       <c r="Y34" t="n">
-        <v>977.1399948936614</v>
+        <v>868.6734365667006</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1922.158427600213</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C35" t="n">
-        <v>1553.195910659802</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D35" t="n">
-        <v>1194.930212053051</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E35" t="n">
-        <v>809.141959454807</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F35" t="n">
-        <v>809.141959454807</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G35" t="n">
-        <v>393.4372091790958</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H35" t="n">
-        <v>89.3780651766661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U35" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V35" t="n">
-        <v>2308.758267664335</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W35" t="n">
-        <v>2308.758267664335</v>
+        <v>1570.414233809428</v>
       </c>
       <c r="X35" t="n">
-        <v>2308.758267664335</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y35" t="n">
-        <v>2308.758267664335</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G36" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J36" t="n">
         <v>238.4273302370161</v>
@@ -7028,13 +7028,13 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.293511287796</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O36" t="n">
-        <v>2047.363946463958</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7049,7 +7049,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
@@ -7058,7 +7058,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>220.18296949591</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="C37" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="D37" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="E37" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="F37" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7119,28 +7119,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S37" t="n">
         <v>1337.233965749941</v>
       </c>
       <c r="T37" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U37" t="n">
-        <v>1048.115628253779</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V37" t="n">
-        <v>1048.115628253779</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W37" t="n">
-        <v>850.6135643676972</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="X37" t="n">
-        <v>622.6240134696799</v>
+        <v>53.04593830764901</v>
       </c>
       <c r="Y37" t="n">
-        <v>401.8314343261497</v>
+        <v>53.04593830764901</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1579.968004989121</v>
+        <v>1216.983460896266</v>
       </c>
       <c r="C38" t="n">
-        <v>1211.005488048709</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="D38" t="n">
-        <v>852.7397894419585</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E38" t="n">
-        <v>466.9515368437143</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G38" t="n">
         <v>51.2467865680031</v>
@@ -7210,16 +7210,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>2346.491288206314</v>
       </c>
       <c r="W38" t="n">
-        <v>2340.033603314322</v>
+        <v>1993.7226329362</v>
       </c>
       <c r="X38" t="n">
-        <v>1966.567845053242</v>
+        <v>1993.7226329362</v>
       </c>
       <c r="Y38" t="n">
-        <v>1966.567845053242</v>
+        <v>1603.583300960388</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>686.1991671823603</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C40" t="n">
-        <v>517.2629842544534</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D40" t="n">
-        <v>367.1463448421176</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E40" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H40" t="n">
         <v>51.2467865680031</v>
@@ -7365,19 +7365,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U40" t="n">
-        <v>1347.327782578335</v>
+        <v>1490.899205983621</v>
       </c>
       <c r="V40" t="n">
-        <v>1347.327782578335</v>
+        <v>1236.214717777734</v>
       </c>
       <c r="W40" t="n">
-        <v>1316.629762054147</v>
+        <v>946.7975477407732</v>
       </c>
       <c r="X40" t="n">
-        <v>1088.64021115613</v>
+        <v>718.8079968427559</v>
       </c>
       <c r="Y40" t="n">
-        <v>867.8476320126</v>
+        <v>498.0154176992257</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>897.568857462134</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C41" t="n">
-        <v>528.6063405217222</v>
+        <v>549.053600981453</v>
       </c>
       <c r="D41" t="n">
-        <v>528.6063405217222</v>
+        <v>190.7879023747025</v>
       </c>
       <c r="E41" t="n">
-        <v>528.6063405217222</v>
+        <v>190.7879023747025</v>
       </c>
       <c r="F41" t="n">
-        <v>117.6204357321147</v>
+        <v>190.7879023747025</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6204357321147</v>
+        <v>190.7879023747025</v>
       </c>
       <c r="H41" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O41" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V41" t="n">
-        <v>2400.542443033261</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W41" t="n">
-        <v>2047.773787763147</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X41" t="n">
-        <v>1674.308029502067</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y41" t="n">
-        <v>1284.168697526256</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L42" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M42" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7523,7 +7523,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
@@ -7532,7 +7532,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>606.9425808380927</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="C43" t="n">
-        <v>606.9425808380927</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D43" t="n">
-        <v>606.9425808380927</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E43" t="n">
-        <v>459.0294872556996</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F43" t="n">
-        <v>312.1395397577892</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G43" t="n">
-        <v>144.1530750660678</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7599,22 +7599,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U43" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.349301773071</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W43" t="n">
-        <v>834.93213173611</v>
+        <v>1153.201555841513</v>
       </c>
       <c r="X43" t="n">
-        <v>606.9425808380927</v>
+        <v>1153.201555841513</v>
       </c>
       <c r="Y43" t="n">
-        <v>606.9425808380927</v>
+        <v>932.4089766979826</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1575.249159503017</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C44" t="n">
-        <v>1206.286642562605</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D44" t="n">
-        <v>848.0209439558548</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F44" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
         <v>51.2467865680031</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2547.081501850657</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2547.081501850657</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400155</v>
+        <v>2293.500441114837</v>
       </c>
       <c r="V44" t="n">
-        <v>2562.339328400155</v>
+        <v>1962.437553771266</v>
       </c>
       <c r="W44" t="n">
-        <v>2562.339328400155</v>
+        <v>1609.668898501152</v>
       </c>
       <c r="X44" t="n">
-        <v>2351.988331542951</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="Y44" t="n">
-        <v>1961.848999567139</v>
+        <v>1236.203140240072</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>977.139994893661</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C46" t="n">
-        <v>977.139994893661</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D46" t="n">
-        <v>977.139994893661</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E46" t="n">
-        <v>977.139994893661</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F46" t="n">
-        <v>977.139994893661</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G46" t="n">
-        <v>977.139994893661</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H46" t="n">
-        <v>977.139994893661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I46" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K46" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M46" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N46" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O46" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P46" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q46" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.710580560016</v>
+        <v>1611.256076265582</v>
       </c>
       <c r="T46" t="n">
-        <v>2259.142120674218</v>
+        <v>1611.256076265582</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.023783178056</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.339294972169</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="W46" t="n">
-        <v>1425.922124935208</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="X46" t="n">
-        <v>1197.932574037191</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.139994893661</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
   </sheetData>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>46.56605103777649</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9556134883076766</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>45.44676101130837</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.454437538930094</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154994</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>20.9377812015499</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>168.743458178065</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4465442417444</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>168.7434581780645</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.0169020165191</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>20.9377812015499</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>20.9377812015499</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>255.5240487471572</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>68.61224855634973</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>64.83839837331359</v>
       </c>
     </row>
     <row r="10">
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>41.60771861940145</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>98.73949432713007</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750779</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027079</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>245.0371421820402</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -23314,19 +23314,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>131.1360866589091</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>63.90808845680503</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,7 +23433,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23515,7 +23515,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>139.9018641501621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>130.6772903939143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.5253779792056</v>
+        <v>24.43091470625492</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>204.7557893481895</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>248.9389320873149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>46.56474013018787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>105.7095549241753</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>343.5574136868021</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.32469921170372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>121.8783045636568</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.639887800682</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>333.5530517713245</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>297.9645985475932</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4932488588039</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>145.4703489328793</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>309.1110889860537</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1076594852994504</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>2.4823506727042</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24654,7 +24654,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>130.0505805261115</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>99.66242439210095</v>
       </c>
       <c r="D29" t="n">
-        <v>203.3002158843209</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.49324754011406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>235.7084082960642</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>276.1430340502179</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.547702772954</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>74.2714255066376</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.505620485198904</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8034931298457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>27.95994684989414</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>69.48484906998527</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>103.0154349816511</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>90.99595508937045</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
@@ -25450,16 +25450,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>114.0626986782324</v>
       </c>
       <c r="W38" t="n">
-        <v>129.1583008824385</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>104.7965952039006</v>
@@ -25605,13 +25605,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>142.1357091712329</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>256.1319580176453</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>228.5827605862435</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>167.5733419569094</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>55.27428354204484</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>60.2485230697643</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>108.3469671147917</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>161.4836137898368</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.7243169909111</v>
       </c>
       <c r="T46" t="n">
-        <v>115.245920710272</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>330600.7597974779</v>
+        <v>485153.5658931132</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.1879611115</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="15">
@@ -26316,19 +26316,19 @@
         <v>99166.69657404804</v>
       </c>
       <c r="C2" t="n">
-        <v>99166.69657404805</v>
+        <v>99166.69657404804</v>
       </c>
       <c r="D2" t="n">
-        <v>99917.42429591442</v>
+        <v>153375.3739746994</v>
       </c>
       <c r="E2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="G2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="H2" t="n">
         <v>260075.8859201622</v>
@@ -26337,7 +26337,7 @@
         <v>260075.8859201622</v>
       </c>
       <c r="J2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="K2" t="n">
         <v>260075.8859201622</v>
@@ -26349,7 +26349,7 @@
         <v>260075.8859201622</v>
       </c>
       <c r="N2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="O2" t="n">
         <v>260075.8859201622</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>326899.4975468233</v>
       </c>
       <c r="E3" t="n">
-        <v>732170.470382964</v>
+        <v>445061.6638164766</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47461.03838151115</v>
       </c>
       <c r="M3" t="n">
-        <v>159636.3024986581</v>
+        <v>112904.1760744624</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>19093.49581609735</v>
+        <v>7145.895421973703</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.18241499342</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="F4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="G4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="H4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="I4" t="n">
         <v>12563.1824149934</v>
       </c>
       <c r="J4" t="n">
+        <v>12563.1824149934</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12563.1824149934</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12563.1824149934</v>
+      </c>
+      <c r="M4" t="n">
         <v>12563.18241499341</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12563.18241499341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12563.18241499341</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12563.1824149934</v>
       </c>
       <c r="N4" t="n">
         <v>12563.1824149934</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="P4" t="n">
         <v>12563.1824149934</v>
@@ -26475,28 +26475,28 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984468</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984468</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984471</v>
@@ -26508,7 +26508,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188287.7288925273</v>
+        <v>-202980.4380465433</v>
       </c>
       <c r="C6" t="n">
-        <v>37949.36798617641</v>
+        <v>23256.65883216037</v>
       </c>
       <c r="D6" t="n">
-        <v>19230.19699311941</v>
+        <v>-249159.7828302772</v>
       </c>
       <c r="E6" t="n">
-        <v>-543967.9393176399</v>
+        <v>-262086.5954730441</v>
       </c>
       <c r="F6" t="n">
-        <v>188202.5310653245</v>
+        <v>182975.0683434322</v>
       </c>
       <c r="G6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434325</v>
       </c>
       <c r="H6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="I6" t="n">
-        <v>188202.5310653238</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="J6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434323</v>
       </c>
       <c r="K6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="L6" t="n">
-        <v>188202.5310653241</v>
+        <v>135514.0299619213</v>
       </c>
       <c r="M6" t="n">
-        <v>28566.22856666594</v>
+        <v>70070.89226897</v>
       </c>
       <c r="N6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="O6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="P6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434324</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="F3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="G3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="H3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="F3" t="n">
-        <v>934.0648921175389</v>
-      </c>
-      <c r="G3" t="n">
-        <v>934.0648921175389</v>
-      </c>
-      <c r="H3" t="n">
-        <v>934.0648921175389</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26795,40 +26795,40 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="I4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="O4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
         <v>640.5848321000387</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>313.6899027869107</v>
       </c>
       <c r="E3" t="n">
-        <v>673.2684996000744</v>
+        <v>385.5949512046342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>640.584832100039</v>
+        <v>453.0592449337186</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="M4" t="n">
-        <v>640.584832100039</v>
+        <v>453.0592449337186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="M4" t="n">
-        <v>640.584832100039</v>
+        <v>453.0592449337186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31834,10 +31834,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31846,7 +31846,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040588</v>
@@ -31855,25 +31855,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31931,10 +31931,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31946,13 +31946,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32162,34 +32162,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J18" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N18" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H19" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32399,34 +32399,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L19" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q19" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T20" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J21" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N21" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H22" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
@@ -32636,34 +32636,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L22" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q22" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>28.4584419706827</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K12" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>392.1527130811816</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>335.424681996123</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
         <v>278.0112915831069</v>
@@ -35579,7 +35579,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
         <v>262.6644876295069</v>
@@ -35588,7 +35588,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560633</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308545</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977088</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>108.4269819022257</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L18" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N18" t="n">
-        <v>640.5848321000385</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O18" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>24.58388860977088</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P20" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>69.43465842984743</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L21" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>640.5848321000386</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N21" t="n">
-        <v>640.5848321000386</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O21" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K22" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P22" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820405</v>
@@ -36457,7 +36457,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>355.3309544215498</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36697,7 +36697,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L30" t="n">
-        <v>538.1269048795946</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820405</v>
@@ -36931,10 +36931,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>355.3309544215493</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37171,7 +37171,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.4976243473736</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37639,10 +37639,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346374</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>622.4553810291977</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N42" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
         <v>335.424681996123</v>
@@ -37879,10 +37879,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
